--- a/Park/park_release_msv2015_32bit/UserMessage.xlsx
+++ b/Park/park_release_msv2015_32bit/UserMessage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deng_chao\Desktop\Park\park_release_msv2015_32bit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A9C26-156B-45AE-9BD3-EFF272D76C2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UID</t>
   </si>
@@ -28,71 +34,37 @@
     <t>moneyBalance</t>
   </si>
   <si>
+    <t>C551A2AB</t>
+  </si>
+  <si>
+    <t>F043B34F</t>
+  </si>
+  <si>
+    <t>2019/04/21 13:50:03</t>
+  </si>
+  <si>
+    <t>2019/04/21 13:51:47</t>
+  </si>
+  <si>
+    <t>2019/04/22 15:12:29</t>
+  </si>
+  <si>
+    <t>2019/04/22 15:12:59</t>
+  </si>
+  <si>
+    <t>isVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isComIn</t>
-  </si>
-  <si>
-    <t>C551A2AB</t>
-  </si>
-  <si>
-    <t>F043B34F</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:13:41</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:14:27</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:14:45</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:16:06</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:16:23</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:18:07</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:18:29</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:18:46</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:19:03</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:19:20</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:19:36</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:22:05</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:22:22</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:24:09</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:24:32</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:41:50</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:42:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,12 +75,9 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,10 +105,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -463,20 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,41 +470,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>-20</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Park/park_release_msv2015_32bit/UserMessage.xlsx
+++ b/Park/park_release_msv2015_32bit/UserMessage.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deng_chao\Desktop\Park\park_release_msv2015_32bit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A9C26-156B-45AE-9BD3-EFF272D76C2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="15">
   <si>
     <t>UID</t>
   </si>
@@ -40,31 +34,38 @@
     <t>F043B34F</t>
   </si>
   <si>
-    <t>2019/04/21 13:50:03</t>
-  </si>
-  <si>
-    <t>2019/04/21 13:51:47</t>
-  </si>
-  <si>
-    <t>2019/04/22 15:12:29</t>
-  </si>
-  <si>
-    <t>2019/04/22 15:12:59</t>
-  </si>
-  <si>
     <t>isVip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isComIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/04/22 20:14:03</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:17:31</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:17:48</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:18:55</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:19:14</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:20:05</t>
+  </si>
+  <si>
+    <t>2019/04/22 20:20:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,9 +76,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,18 +109,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -440,23 +436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,24 +464,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -496,29 +490,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>565</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Park/park_release_msv2015_32bit/UserMessage.xlsx
+++ b/Park/park_release_msv2015_32bit/UserMessage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deng_chao\Desktop\Park\park_release_msv2015_32bit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A9C26-156B-45AE-9BD3-EFF272D76C2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UID</t>
   </si>
@@ -34,38 +40,31 @@
     <t>F043B34F</t>
   </si>
   <si>
+    <t>2019/04/21 13:50:03</t>
+  </si>
+  <si>
+    <t>2019/04/21 13:51:47</t>
+  </si>
+  <si>
+    <t>2019/04/22 15:12:29</t>
+  </si>
+  <si>
+    <t>2019/04/22 15:12:59</t>
+  </si>
+  <si>
     <t>isVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isComIn</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:14:03</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:17:31</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:17:48</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:18:55</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:19:14</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:20:05</t>
-  </si>
-  <si>
-    <t>2019/04/22 20:20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +75,9 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +105,18 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,21 +440,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,24 +470,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -490,26 +496,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>565</v>
+        <v>85</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>